--- a/dados/bestonlinebr.xlsx
+++ b/dados/bestonlinebr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -546,17 +586,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -571,17 +621,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -596,17 +656,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -621,17 +691,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -646,17 +722,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -671,17 +757,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -696,17 +792,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -721,17 +827,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -746,17 +858,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -771,17 +893,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -796,17 +928,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -821,17 +963,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -846,17 +994,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -871,17 +1029,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -896,17 +1064,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -921,17 +1099,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -946,17 +1134,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>
@@ -971,17 +1169,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D46b15db6-92be-4efb-867d-e5bb4f410c98</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
         </is>
       </c>
     </row>

--- a/dados/bestonlinebr.xlsx
+++ b/dados/bestonlinebr.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>364.95</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>624.33</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -546,14 +546,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>493.42</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -581,14 +581,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>422.93</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>536.26</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -651,14 +651,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>443.07</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -686,18 +686,18 @@
           <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>423.99</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>402.79</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -732,7 +732,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -752,22 +752,18 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>736.61</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -777,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -787,14 +783,14 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>681.83</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -802,7 +798,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -812,7 +808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -822,18 +818,18 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>736.61</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -843,7 +839,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -853,14 +849,14 @@
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>845.87</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -868,7 +864,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -878,7 +874,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -888,14 +884,14 @@
           <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -913,7 +909,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -923,14 +919,14 @@
           <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>408.73</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -938,7 +934,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -948,7 +944,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -958,13 +954,13 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>771.63</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -979,7 +975,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -989,14 +985,14 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>716.71</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1014,7 +1010,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -1024,14 +1020,14 @@
           <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>523.63</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1049,7 +1045,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -1059,14 +1055,14 @@
           <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>473.28</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1084,7 +1080,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1090,14 @@
           <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>390.43</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1119,7 +1115,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -1129,19 +1125,15 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>774.88</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1154,7 +1146,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>
@@ -1164,14 +1156,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>573.36</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1189,7 +1181,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De7177dfe-d068-49c3-91db-5e16a39e7498</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
         </is>
       </c>
     </row>

--- a/dados/bestonlinebr.xlsx
+++ b/dados/bestonlinebr.xlsx
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>364.95</v>
+        <v>624.33</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>624.33</v>
+        <v>493.42</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>493.42</v>
+        <v>422.93</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>422.93</v>
+        <v>364.95</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -742,28 +742,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>408.73</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -773,32 +777,28 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>736.61</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,28 +808,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>736.61</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -839,23 +843,23 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>845.87</v>
+        <v>681.83</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -864,33 +868,33 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>694.8200000000001</v>
+        <v>845.87</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -909,23 +913,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>408.73</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -934,35 +938,39 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>771.63</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>523.63</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -975,23 +983,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>716.71</v>
+        <v>473.28</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1010,23 +1018,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>523.63</v>
+        <v>390.43</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1045,23 +1053,23 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>473.28</v>
+        <v>573.36</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1080,29 +1088,25 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>771.63</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1115,25 +1119,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>716.71</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1146,23 +1154,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>573.36</v>
+        <v>774.88</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1181,7 +1189,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D91f77469-77d2-4da5-9b5e-94c6ad052744</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
         </is>
       </c>
     </row>

--- a/dados/bestonlinebr.xlsx
+++ b/dados/bestonlinebr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,723 +483,978 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>624.33</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>493.42</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>422.93</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>364.95</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>536.26</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>443.07</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>381.59</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>402.79</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>408.73</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>736.61</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>681.83</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>736.61</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>681.83</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>890.39</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>845.87</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>694.8200000000001</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>523.63</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>408.73</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>473.28</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>716.71</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>390.43</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>573.36</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>847.99</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4589427992-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>771.63</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>716.71</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>774.88</v>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>573.36</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4eb0f41e-60b4-47af-8ffd-e680b1c64b00</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>bestonlinebr</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>390.43</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
         </is>
       </c>
     </row>

--- a/dados/bestonlinebr.xlsx
+++ b/dados/bestonlinebr.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,42 +493,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>624.33</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,22 +538,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>736.61</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -566,14 +562,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +579,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>422.93</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -611,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +624,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>364.95</v>
+        <v>430.25</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>536.26</v>
+        <v>445.19</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,42 +714,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>443.07</v>
+        <v>890.39</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,18 +759,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>381.59</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>384.16</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -787,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,25 +804,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>402.79</v>
+        <v>847.99</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -832,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589427992-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,42 +849,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>736.61</v>
+        <v>731.39</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,42 +894,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>681.83</v>
+        <v>410.98</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,18 +939,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>519.39</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -963,14 +967,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -980,16 +984,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>890.39</v>
+        <v>717.72</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1003,19 +1007,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,20 +1029,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>694.8200000000001</v>
+        <v>603.54</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1053,14 +1057,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,42 +1074,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>523.63</v>
+        <v>775.38</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,42 +1119,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>771.63</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,20 +1160,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>716.71</v>
+        <v>815.67</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1188,14 +1188,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,42 +1205,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>473.28</v>
+        <v>423.99</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,25 +1250,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>847.99</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>423.99</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1278,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589427992-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,18 +1291,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>771.63</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>466.39</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1336,20 +1336,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>774.88</v>
+        <v>498.19</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1381,20 +1381,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>573.36</v>
+        <v>754.4400000000001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1426,35 +1426,35 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>390.43</v>
+        <v>564.49</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0147a43-f5f9-47cf-9403-035eed8c571e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
         </is>
       </c>
     </row>

--- a/dados/bestonlinebr.xlsx
+++ b/dados/bestonlinebr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>551.1900000000001</v>
+        <v>539.34</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643619483-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,38 +538,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>798.12</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#searchVariation=MLB30464905&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#wid=MLB4589435050&amp;sid=search&amp;searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>657.1900000000001</v>
+        <v>414.87</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -607,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#searchVariation=MLB24834408&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#wid=MLB4563073274&amp;sid=search&amp;searchVariation=MLB22569833&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -633,11 +637,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>430.25</v>
+        <v>420.99</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -652,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4589672834-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>445.19</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -687,24 +691,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1492722080#searchVariation=MLB21562641&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1492722080#wid=MLB4571564174&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,22 +718,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>890.39</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>423.99</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -737,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#searchVariation=MLB26091477&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#wid=MLB3641285201&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,20 +759,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>384.16</v>
+        <v>552.34</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -787,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1492722080#searchVariation=MLB23456525&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3641235307-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,20 +804,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>847.99</v>
+        <v>456.36</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -832,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589427992-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#wid=MLB4572004946&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,16 +849,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>731.39</v>
+        <v>738.22</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643553599-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=180217356804#searchVariation%3D180217356804%26position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#wid=MLB3651126567&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,22 +894,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>410.98</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>777.08</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3646752187-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -948,11 +944,11 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>519.39</v>
+        <v>508.22</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -967,14 +963,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1492722080#wid=MLB4571702904&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,16 +980,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>717.72</v>
+        <v>487.48</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1002,24 +998,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1492722080#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,7 +1025,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1038,7 +1034,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>603.54</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1057,14 +1053,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3641319051-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#wid=MLB4563020892&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,16 +1070,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>775.38</v>
+        <v>715.66</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1092,24 +1088,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1492722080#searchVariation=MLB24006449&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1492722080#wid=MLB4571584832&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,21 +1115,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>771.63</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>871.25</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1143,14 +1143,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548356679-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:1492722080#wid=MLB3651157121&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,301 +1160,31 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>815.67</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>739.26</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4589396544-fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>bestonlinebr</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1492722080#searchVariation=MLB22569833&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>bestonlinebr</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:1492722080#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>bestonlinebr</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>466.39</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1492722080#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>bestonlinebr</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>498.19</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643752475-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>bestonlinebr</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>754.4400000000001</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3651101141-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>bestonlinebr</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>564.49</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1492722080#searchVariation=MLB23998473&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c19433e-5a68-4e2a-8276-96bf30eccc6b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1492722080#wid=MLB4589182958&amp;sid=search&amp;searchVariation=MLB30464905&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f19e4eb2-cf2a-4cff-bc15-9b832ee7237b</t>
         </is>
       </c>
     </row>
